--- a/数值表7.10/游戏相关设计/vip设定.xlsx
+++ b/数值表7.10/游戏相关设计/vip设定.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="38400" windowHeight="16560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表4" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="255">
   <si>
     <t>礼包</t>
     <rPh sb="0" eb="1">
@@ -1901,6 +1903,19 @@
   </si>
   <si>
     <t>"0":1,"1":3,"2":5,"3":7,"4":10,"5":13,"6":16,"7":20,"8":23,"9":26,"10":30,"11":33,"12":36,"13":40,"14":43,"15":46,"16":50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启深渊一键扫荡功能。1</t>
+  </si>
+  <si>
+    <t>开启炎界远征扫荡功能。1</t>
+  </si>
+  <si>
+    <t>vip1</t>
+  </si>
+  <si>
+    <t>vip0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2255,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC69"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:R29"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2514,16 +2529,10 @@
       <c r="T13">
         <v>3</v>
       </c>
-      <c r="U13">
-        <v>10</v>
-      </c>
       <c r="V13">
         <v>1</v>
       </c>
       <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
         <v>1</v>
       </c>
       <c r="AA13">
@@ -2582,9 +2591,6 @@
       <c r="R14" s="2">
         <v>3</v>
       </c>
-      <c r="U14">
-        <v>15</v>
-      </c>
       <c r="W14">
         <v>1</v>
       </c>
@@ -2647,9 +2653,6 @@
       <c r="V15">
         <v>2</v>
       </c>
-      <c r="Z15">
-        <v>2</v>
-      </c>
       <c r="AB15">
         <v>4</v>
       </c>
@@ -2703,9 +2706,6 @@
       <c r="R16" s="2">
         <v>7</v>
       </c>
-      <c r="U16">
-        <v>20</v>
-      </c>
       <c r="X16">
         <v>3</v>
       </c>
@@ -2765,9 +2765,6 @@
       <c r="V17">
         <v>3</v>
       </c>
-      <c r="Z17">
-        <v>3</v>
-      </c>
       <c r="AB17">
         <v>6</v>
       </c>
@@ -2818,9 +2815,6 @@
       <c r="R18" s="2">
         <v>13</v>
       </c>
-      <c r="U18">
-        <v>25</v>
-      </c>
       <c r="X18">
         <v>4</v>
       </c>
@@ -2883,9 +2877,6 @@
       <c r="V19">
         <v>4</v>
       </c>
-      <c r="Z19">
-        <v>4</v>
-      </c>
       <c r="AB19">
         <v>8</v>
       </c>
@@ -2936,9 +2927,6 @@
       <c r="R20" s="2">
         <v>20</v>
       </c>
-      <c r="U20">
-        <v>30</v>
-      </c>
       <c r="X20">
         <v>5</v>
       </c>
@@ -3004,9 +2992,6 @@
       <c r="V21">
         <v>5</v>
       </c>
-      <c r="Z21">
-        <v>5</v>
-      </c>
       <c r="AB21">
         <v>10</v>
       </c>
@@ -3060,9 +3045,6 @@
       <c r="R22" s="2">
         <v>26</v>
       </c>
-      <c r="U22">
-        <v>35</v>
-      </c>
       <c r="X22">
         <v>6</v>
       </c>
@@ -3125,9 +3107,6 @@
       <c r="V23">
         <v>6</v>
       </c>
-      <c r="Z23">
-        <v>6</v>
-      </c>
       <c r="AB23">
         <v>12</v>
       </c>
@@ -3178,9 +3157,6 @@
       <c r="R24" s="2">
         <v>33</v>
       </c>
-      <c r="U24">
-        <v>40</v>
-      </c>
       <c r="X24">
         <v>7</v>
       </c>
@@ -3243,9 +3219,6 @@
       <c r="V25">
         <v>7</v>
       </c>
-      <c r="Z25">
-        <v>7</v>
-      </c>
       <c r="AB25">
         <v>14</v>
       </c>
@@ -3293,9 +3266,6 @@
       <c r="R26" s="2">
         <v>40</v>
       </c>
-      <c r="U26">
-        <v>45</v>
-      </c>
       <c r="X26">
         <v>8</v>
       </c>
@@ -3358,9 +3328,6 @@
       <c r="V27">
         <v>8</v>
       </c>
-      <c r="Z27">
-        <v>8</v>
-      </c>
       <c r="AB27">
         <v>16</v>
       </c>
@@ -3414,9 +3381,6 @@
       <c r="R28" s="2">
         <v>46</v>
       </c>
-      <c r="U28">
-        <v>50</v>
-      </c>
       <c r="X28">
         <v>10</v>
       </c>
@@ -3479,13 +3443,7 @@
       <c r="T29">
         <v>10</v>
       </c>
-      <c r="U29">
-        <v>70</v>
-      </c>
       <c r="V29">
-        <v>10</v>
-      </c>
-      <c r="Z29">
         <v>10</v>
       </c>
       <c r="AA29">
@@ -3514,7 +3472,7 @@
       </c>
       <c r="U33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>每日竞技场挑战购买增加到10次。</v>
+        <v/>
       </c>
       <c r="V33" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3534,7 +3492,7 @@
       </c>
       <c r="Z33" s="2" t="str">
         <f>IF(Z13="","",Z$4&amp;Z13&amp;Z$5)</f>
-        <v>每日龙穴探险次购买次数增加到1次。</v>
+        <v/>
       </c>
       <c r="AA33" s="2" t="str">
         <f t="shared" ref="AA33:AB33" si="2">IF(AA13="","",AA$4&amp;AA13&amp;AA$5)</f>
@@ -3568,7 +3526,7 @@
       </c>
       <c r="U34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>每日竞技场挑战购买增加到15次。</v>
+        <v/>
       </c>
       <c r="V34" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3642,7 +3600,7 @@
       </c>
       <c r="Z35" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>每日龙穴探险次购买次数增加到2次。</v>
+        <v/>
       </c>
       <c r="AA35" s="2" t="str">
         <f t="shared" si="5"/>
@@ -3676,7 +3634,7 @@
       </c>
       <c r="U36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>每日竞技场挑战购买增加到20次。</v>
+        <v/>
       </c>
       <c r="V36" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3750,7 +3708,7 @@
       </c>
       <c r="Z37" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>每日龙穴探险次购买次数增加到3次。</v>
+        <v/>
       </c>
       <c r="AA37" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3784,7 +3742,7 @@
       </c>
       <c r="U38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>每日竞技场挑战购买增加到25次。</v>
+        <v/>
       </c>
       <c r="V38" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3858,7 +3816,7 @@
       </c>
       <c r="Z39" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>每日龙穴探险次购买次数增加到4次。</v>
+        <v/>
       </c>
       <c r="AA39" s="2" t="str">
         <f t="shared" si="9"/>
@@ -3892,7 +3850,7 @@
       </c>
       <c r="U40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>每日竞技场挑战购买增加到30次。</v>
+        <v/>
       </c>
       <c r="V40" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3966,7 +3924,7 @@
       </c>
       <c r="Z41" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>每日龙穴探险次购买次数增加到5次。</v>
+        <v/>
       </c>
       <c r="AA41" s="2" t="str">
         <f t="shared" si="11"/>
@@ -4000,7 +3958,7 @@
       </c>
       <c r="U42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>每日竞技场挑战购买增加到35次。</v>
+        <v/>
       </c>
       <c r="V42" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4074,7 +4032,7 @@
       </c>
       <c r="Z43" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>每日龙穴探险次购买次数增加到6次。</v>
+        <v/>
       </c>
       <c r="AA43" s="2" t="str">
         <f t="shared" si="13"/>
@@ -4108,7 +4066,7 @@
       </c>
       <c r="U44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>每日竞技场挑战购买增加到40次。</v>
+        <v/>
       </c>
       <c r="V44" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4182,7 +4140,7 @@
       </c>
       <c r="Z45" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>每日龙穴探险次购买次数增加到7次。</v>
+        <v/>
       </c>
       <c r="AA45" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4216,7 +4174,7 @@
       </c>
       <c r="U46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>每日竞技场挑战购买增加到45次。</v>
+        <v/>
       </c>
       <c r="V46" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4290,7 +4248,7 @@
       </c>
       <c r="Z47" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>每日龙穴探险次购买次数增加到8次。</v>
+        <v/>
       </c>
       <c r="AA47" s="2" t="str">
         <f t="shared" si="17"/>
@@ -4324,7 +4282,7 @@
       </c>
       <c r="U48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>每日竞技场挑战购买增加到50次。</v>
+        <v/>
       </c>
       <c r="V48" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4374,7 +4332,7 @@
       </c>
       <c r="U49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>每日竞技场挑战购买增加到70次。</v>
+        <v/>
       </c>
       <c r="V49" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4394,7 +4352,7 @@
       </c>
       <c r="Z49" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>每日龙穴探险次购买次数增加到10次。</v>
+        <v/>
       </c>
       <c r="AA49" s="2" t="str">
         <f t="shared" si="19"/>
@@ -4811,8 +4769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:R19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5637,7 +5595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F8:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -6125,4 +6083,1625 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="e">
+        <f>IF(#REF!="","",R$4&amp;#REF!&amp;R$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q4" s="2" t="e">
+        <f>IF(#REF!="","",R$4&amp;#REF!&amp;R$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R4" s="2" t="e">
+        <f>IF(#REF!="","",R$4&amp;#REF!&amp;R$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S4" s="2" t="e">
+        <f>IF(#REF!="","",R$4&amp;#REF!&amp;R$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="e">
+        <f>IF(#REF!="","",S$4&amp;#REF!&amp;S$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q5" s="2" t="e">
+        <f>IF(#REF!="","",S$4&amp;#REF!&amp;S$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R5" s="2" t="e">
+        <f>IF(#REF!="","",S$4&amp;#REF!&amp;S$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S5" s="2" t="e">
+        <f>IF(#REF!="","",S$4&amp;#REF!&amp;S$5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="e">
+        <f>IF(#REF!="","",T$4&amp;#REF!&amp;T$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q6" s="2" t="e">
+        <f>IF(#REF!="","",T$4&amp;#REF!&amp;T$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R6" s="2" t="e">
+        <f>IF(#REF!="","",T$4&amp;#REF!&amp;T$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S6" s="2" t="e">
+        <f>IF(#REF!="","",T$4&amp;#REF!&amp;T$5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="e">
+        <f>IF(#REF!="","",U$4&amp;#REF!&amp;U$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q7" s="2" t="e">
+        <f>IF(#REF!="","",U$4&amp;#REF!&amp;U$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R7" s="2" t="e">
+        <f>IF(#REF!="","",U$4&amp;#REF!&amp;U$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S7" s="2" t="e">
+        <f>IF(#REF!="","",U$4&amp;#REF!&amp;U$5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2" t="e">
+        <f>IF(#REF!="","",V$4&amp;#REF!&amp;V$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q8" s="2" t="e">
+        <f>IF(#REF!="","",V$4&amp;#REF!&amp;V$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R8" s="2" t="e">
+        <f>IF(#REF!="","",V$4&amp;#REF!&amp;V$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S8" s="2" t="e">
+        <f>IF(#REF!="","",V$4&amp;#REF!&amp;V$5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="e">
+        <f>IF(#REF!="","",W$4&amp;#REF!&amp;W$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q9" s="2" t="e">
+        <f>IF(#REF!="","",W$4&amp;#REF!&amp;W$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R9" s="2" t="e">
+        <f>IF(#REF!="","",W$4&amp;#REF!&amp;W$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S9" s="2" t="e">
+        <f>IF(#REF!="","",W$4&amp;#REF!&amp;W$5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="e">
+        <f>IF(#REF!="","",X$4&amp;#REF!&amp;X$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q10" s="2" t="e">
+        <f>IF(#REF!="","",X$4&amp;#REF!&amp;X$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R10" s="2" t="e">
+        <f>IF(#REF!="","",X$4&amp;#REF!&amp;X$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S10" s="2" t="e">
+        <f>IF(#REF!="","",X$4&amp;#REF!&amp;X$5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="e">
+        <f>IF(#REF!="","",Y$4&amp;#REF!&amp;Y$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q11" s="2" t="e">
+        <f>IF(#REF!="","",Y$4&amp;#REF!&amp;Y$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R11" s="2" t="e">
+        <f>IF(#REF!="","",Y$4&amp;#REF!&amp;Y$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S11" s="2" t="e">
+        <f>IF(#REF!="","",Y$4&amp;#REF!&amp;Y$5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="e">
+        <f>IF(#REF!="","",Z$4&amp;#REF!&amp;Z$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q12" s="2" t="e">
+        <f>IF(#REF!="","",Z$4&amp;#REF!&amp;Z$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R12" s="2" t="e">
+        <f>IF(#REF!="","",Z$4&amp;#REF!&amp;Z$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S12" s="2" t="e">
+        <f>IF(#REF!="","",Z$4&amp;#REF!&amp;Z$5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2" t="e">
+        <f>IF(#REF!="","",AA$4&amp;#REF!&amp;AA$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q13" s="2" t="e">
+        <f>IF(#REF!="","",AA$4&amp;#REF!&amp;AA$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R13" s="2" t="e">
+        <f>IF(#REF!="","",AA$4&amp;#REF!&amp;AA$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S13" s="2" t="e">
+        <f>IF(#REF!="","",AA$4&amp;#REF!&amp;AA$5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="e">
+        <f>IF(#REF!="","",AB$4&amp;#REF!&amp;AB$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q14" s="2" t="e">
+        <f>IF(#REF!="","",AB$4&amp;#REF!&amp;AB$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R14" s="2" t="e">
+        <f>IF(#REF!="","",AB$4&amp;#REF!&amp;AB$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S14" s="2" t="e">
+        <f>IF(#REF!="","",AB$4&amp;#REF!&amp;AB$5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="e">
+        <f>IF(#REF!="","",AC$4&amp;#REF!&amp;AC$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q15" s="2" t="e">
+        <f>IF(#REF!="","",AC$4&amp;#REF!&amp;AC$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R15" s="2" t="e">
+        <f>IF(#REF!="","",AC$4&amp;#REF!&amp;AC$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S15" s="2" t="e">
+        <f>IF(#REF!="","",AC$4&amp;#REF!&amp;AC$5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" t="s">
+        <v>133</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L18" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" t="s">
+        <v>202</v>
+      </c>
+      <c r="N18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="s">
+        <v>203</v>
+      </c>
+      <c r="N20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>133</v>
+      </c>
+      <c r="R5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>133</v>
+      </c>
+      <c r="R7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" t="s">
+        <v>166</v>
+      </c>
+      <c r="O8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>133</v>
+      </c>
+      <c r="R8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>133</v>
+      </c>
+      <c r="R9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>176</v>
+      </c>
+      <c r="R10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>133</v>
+      </c>
+      <c r="R11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>133</v>
+      </c>
+      <c r="R12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>194</v>
+      </c>
+      <c r="R13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" t="s">
+        <v>201</v>
+      </c>
+      <c r="O14" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>133</v>
+      </c>
+      <c r="R14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>133</v>
+      </c>
+      <c r="R15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C18" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C19" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>